--- a/改定デザインR.xlsx
+++ b/改定デザインR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f6fbce4126b7c37/ドキュメント/GitHub/desiner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F5D40737-B1BA-4328-A240-2C82A02C5E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68E444E-8233-4362-9683-4A5CD38ABA80}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F5D40737-B1BA-4328-A240-2C82A02C5E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF8E1AA-201F-4693-96AD-29C428714C7B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FD0D8D76-1796-4E17-B9A6-D716DCCD41E9}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -38,10 +27,37 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>真砂匡志</author>
     <author>FJ-USER</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{BE97999B-94BA-40DC-98E0-7A8516329567}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{6DF33E74-D6B0-4CED-82A6-5146FE7D0BE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>真砂匡志:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+3cまたは3の場合は３点とみなす</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{BE97999B-94BA-40DC-98E0-7A8516329567}">
       <text>
         <r>
           <rPr>
@@ -77,9 +93,6 @@
     <t>（6）多量:1日2回以上の交換</t>
   </si>
   <si>
-    <t>（12）64㎠以上100㎠未満</t>
-  </si>
-  <si>
     <t>（6）まったく形成されていない</t>
   </si>
   <si>
@@ -183,21 +196,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（0）局所の炎症傾向無し</t>
-  </si>
-  <si>
-    <t>（Ｕ）深さ判定が不能の場合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（24）36㎠以上</t>
+  </si>
+  <si>
+    <t>（12）64㎠以上100㎠未満</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（5）関節膜・体腔に至る損傷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3C)限界的定着疑い（創面にぬめりがあり、滲出液が多い、肉芽があれば、浮腫性で脆弱など）</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +246,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,20 +340,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,6 +373,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,89 +684,89 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:4" ht="37.5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="37.5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D5" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>45</v>
       </c>
     </row>
@@ -755,10 +796,11 @@
       <formula1>"（0）なし,（1）少量:毎日の交換を要しない,（3）中等量:1日1回の交換,（6）多量:1日2回以上の交換"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{83F040D4-BB9C-4E74-9322-3A32CCA63455}">
-      <formula1>"（0）なし,（1）持続する発疹,（2）真皮までの損傷,（3）皮下組織までの損傷,（4）皮下組織を超える損傷,（5）関節膜・体腔に至る損傷,(DTI)深部損傷褥瘡（DTI）扱い,（Ｕ）深さ判定が不能の場合"</formula1>
+      <formula1>"（0）皮膚組織・発赤なし,（1）持続する発赤,（2）真皮までの損傷,（3）皮下組織までの損傷,（4）皮下組織を超える損傷,（5）関節膜・体腔に至る損傷,(DTI)深部損傷褥瘡（DTI）扱い,（Ｕ）深さ判定が不能の場合"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>